--- a/Skriftlige Produkter/Tidsplan.xlsx
+++ b/Skriftlige Produkter/Tidsplan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Life-Of-Mark---After-Iteration-0\Skriftlige Produkter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lacvu\OneDrive\Dokumenter\GitHub\Life-Of-Mark---After-Iteration-0\Skriftlige Produkter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56F5831-19D0-4A50-BEB4-108ED1141CC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{E56F5831-19D0-4A50-BEB4-108ED1141CC8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{2453616A-5A47-4880-819E-9CE557D46A62}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CFF20DE-F54B-4CA7-9EA6-B3F70A24F71B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{6CFF20DE-F54B-4CA7-9EA6-B3F70A24F71B}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>Dato</t>
   </si>
@@ -117,6 +115,9 @@
   </si>
   <si>
     <t>Save-system, Arbejde på historie</t>
+  </si>
+  <si>
+    <t>Hallway 3 og 4</t>
   </si>
 </sst>
 </file>
@@ -285,7 +286,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -583,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89B9FC7-9091-471F-B5D0-05011EE7CF83}">
   <dimension ref="A1:X98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="109" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="109" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,7 +795,7 @@
         <v>43902</v>
       </c>
       <c r="C17" s="12"/>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="12" t="s">
@@ -810,6 +811,9 @@
       </c>
       <c r="B18" t="s">
         <v>13</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/Skriftlige Produkter/Tidsplan.xlsx
+++ b/Skriftlige Produkter/Tidsplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Life-Of-Mark---After-Iteration-0\Skriftlige Produkter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56F5831-19D0-4A50-BEB4-108ED1141CC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EF71B1-A2BF-4850-BF79-6C6B3946FBC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CFF20DE-F54B-4CA7-9EA6-B3F70A24F71B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Dato</t>
   </si>
@@ -98,9 +98,6 @@
     <t>DEADLINE FOR ITERATION 3! Færdig spil skal afleveres</t>
   </si>
   <si>
-    <t>Forbered og fuldfør iteration 1 aflevering</t>
-  </si>
-  <si>
     <t>Lav skift til første scene</t>
   </si>
   <si>
@@ -117,6 +114,9 @@
   </si>
   <si>
     <t>Save-system, Arbejde på historie</t>
+  </si>
+  <si>
+    <t>Forbered og fuldfør iteration 1 aflevering              +                      Nyt Game koncept</t>
   </si>
 </sst>
 </file>
@@ -583,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89B9FC7-9091-471F-B5D0-05011EE7CF83}">
   <dimension ref="A1:X98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="109" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="109" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,21 +794,21 @@
         <v>43902</v>
       </c>
       <c r="C17" s="12"/>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>23</v>
+      <c r="F17" s="11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43903</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="19" t="s">
         <v>13</v>
       </c>
     </row>
@@ -817,7 +817,10 @@
         <v>43904</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -825,13 +828,13 @@
         <v>43905</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="F20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -839,7 +842,7 @@
         <v>43906</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -847,7 +850,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="J21" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1020,7 +1023,7 @@
         <v>43940</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">

--- a/Skriftlige Produkter/Tidsplan.xlsx
+++ b/Skriftlige Produkter/Tidsplan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lacvu\OneDrive\Dokumenter\GitHub\Life-Of-Mark---After-Iteration-0\Skriftlige Produkter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Life-Of-Mark---After-Iteration-0\Skriftlige Produkter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{E56F5831-19D0-4A50-BEB4-108ED1141CC8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{2453616A-5A47-4880-819E-9CE557D46A62}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EF71B1-A2BF-4850-BF79-6C6B3946FBC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{6CFF20DE-F54B-4CA7-9EA6-B3F70A24F71B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CFF20DE-F54B-4CA7-9EA6-B3F70A24F71B}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Dato</t>
   </si>
@@ -96,9 +98,6 @@
     <t>DEADLINE FOR ITERATION 3! Færdig spil skal afleveres</t>
   </si>
   <si>
-    <t>Forbered og fuldfør iteration 1 aflevering</t>
-  </si>
-  <si>
     <t>Lav skift til første scene</t>
   </si>
   <si>
@@ -117,7 +116,7 @@
     <t>Save-system, Arbejde på historie</t>
   </si>
   <si>
-    <t>Hallway 3 og 4</t>
+    <t>Forbered og fuldfør iteration 1 aflevering              +                      Nyt Game koncept</t>
   </si>
 </sst>
 </file>
@@ -286,7 +285,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -584,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89B9FC7-9091-471F-B5D0-05011EE7CF83}">
   <dimension ref="A1:X98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="109" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="109" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,22 +797,19 @@
       <c r="D17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>23</v>
+      <c r="F17" s="11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43903</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="19" t="s">
         <v>13</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -821,7 +817,10 @@
         <v>43904</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -829,13 +828,13 @@
         <v>43905</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="F20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -843,7 +842,7 @@
         <v>43906</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -851,7 +850,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="J21" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1024,7 +1023,7 @@
         <v>43940</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">

--- a/Skriftlige Produkter/Tidsplan.xlsx
+++ b/Skriftlige Produkter/Tidsplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Life-Of-Mark---After-Iteration-0\Skriftlige Produkter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EF71B1-A2BF-4850-BF79-6C6B3946FBC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78987EC-4AF0-45D8-BE92-23782EEBFBC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CFF20DE-F54B-4CA7-9EA6-B3F70A24F71B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>Dato</t>
   </si>
@@ -117,6 +117,15 @@
   </si>
   <si>
     <t>Forbered og fuldfør iteration 1 aflevering              +                      Nyt Game koncept</t>
+  </si>
+  <si>
+    <t>Collision</t>
+  </si>
+  <si>
+    <t>Kampanimationer</t>
+  </si>
+  <si>
+    <t>Kampsystem og AI</t>
   </si>
 </sst>
 </file>
@@ -152,7 +161,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,6 +216,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -220,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -262,6 +277,8 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89B9FC7-9091-471F-B5D0-05011EE7CF83}">
   <dimension ref="A1:X98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="109" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="109" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,10 +833,10 @@
       <c r="A19" s="4">
         <v>43904</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="11" t="s">
         <v>14</v>
       </c>
     </row>
@@ -827,13 +844,13 @@
       <c r="A20" s="5">
         <v>43905</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -857,6 +874,9 @@
       <c r="A22" s="1">
         <v>43907</v>
       </c>
+      <c r="B22" s="24" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="23" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -872,6 +892,9 @@
       <c r="A25" s="1">
         <v>43910</v>
       </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="26" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -908,82 +931,85 @@
         <v>43917</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>43918</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>43919</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>43920</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>43921</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>43922</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>43923</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>43924</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>43925</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>43926</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
         <v>43927</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <v>43928</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <v>43929</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
         <v>43930</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13">
         <v>43931</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>43932</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="18">
         <v>43933</v>
       </c>

--- a/Skriftlige Produkter/Tidsplan.xlsx
+++ b/Skriftlige Produkter/Tidsplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Life-Of-Mark---After-Iteration-0\Skriftlige Produkter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78987EC-4AF0-45D8-BE92-23782EEBFBC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A72B74-F29C-4E8E-A41D-BBE70AEFD245}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CFF20DE-F54B-4CA7-9EA6-B3F70A24F71B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>Dato</t>
   </si>
@@ -107,15 +107,9 @@
     <t xml:space="preserve">Collision + hitbox </t>
   </si>
   <si>
-    <t xml:space="preserve">Sceneskift, Kampanimationer (evt helt kampsystem), Ryddet op i classes,            Hitboxes og collision, </t>
-  </si>
-  <si>
     <t>DEADLINE FOR ITERATION 1!!!</t>
   </si>
   <si>
-    <t>Save-system, Arbejde på historie</t>
-  </si>
-  <si>
     <t>Forbered og fuldfør iteration 1 aflevering              +                      Nyt Game koncept</t>
   </si>
   <si>
@@ -126,13 +120,87 @@
   </si>
   <si>
     <t>Kampsystem og AI</t>
+  </si>
+  <si>
+    <t>Kampanimationer og AI-movement</t>
+  </si>
+  <si>
+    <t>Kampsystem (AI)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Save-system</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Arbejde på historie</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sceneskift, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kampanimationer (evt helt kampsystem)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Ryddet op i classes,            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6" tint="0.59999389629810485"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hitboxes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> og collision, </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +224,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6" tint="0.59999389629810485"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -235,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -279,6 +369,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89B9FC7-9091-471F-B5D0-05011EE7CF83}">
   <dimension ref="A1:X98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="109" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="109" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,7 +938,7 @@
         <v>43905</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>21</v>
@@ -859,7 +952,7 @@
         <v>43906</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -867,7 +960,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="J21" s="22" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -875,7 +968,7 @@
         <v>43907</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -892,8 +985,8 @@
       <c r="A25" s="1">
         <v>43910</v>
       </c>
-      <c r="B25" t="s">
-        <v>29</v>
+      <c r="B25" s="24" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -940,8 +1033,8 @@
       <c r="A34" s="5">
         <v>43919</v>
       </c>
-      <c r="B34" t="s">
-        <v>30</v>
+      <c r="B34" s="24" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -963,6 +1056,9 @@
       <c r="A38" s="13">
         <v>43923</v>
       </c>
+      <c r="B38" s="25" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="39" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
@@ -988,6 +1084,9 @@
       <c r="A43" s="13">
         <v>43928</v>
       </c>
+      <c r="B43" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="44" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
@@ -1049,7 +1148,7 @@
         <v>43940</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">

--- a/Skriftlige Produkter/Tidsplan.xlsx
+++ b/Skriftlige Produkter/Tidsplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Life-Of-Mark---After-Iteration-0\Skriftlige Produkter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A72B74-F29C-4E8E-A41D-BBE70AEFD245}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC62EC4-A1C7-4A41-B759-76E882E629F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CFF20DE-F54B-4CA7-9EA6-B3F70A24F71B}"/>
   </bookViews>
@@ -694,7 +694,7 @@
   <dimension ref="A1:X98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="109" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Skriftlige Produkter/Tidsplan.xlsx
+++ b/Skriftlige Produkter/Tidsplan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Life-Of-Mark---After-Iteration-0\Skriftlige Produkter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC62EC4-A1C7-4A41-B759-76E882E629F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09D98BB-D63F-4FD9-93E1-315133BC0902}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CFF20DE-F54B-4CA7-9EA6-B3F70A24F71B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>Dato</t>
   </si>
@@ -194,6 +194,21 @@
       </rPr>
       <t xml:space="preserve"> og collision, </t>
     </r>
+  </si>
+  <si>
+    <t>Mark skal slå forskellige retninger</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>Mark skal dø</t>
+  </si>
+  <si>
+    <t>Brobyggere skal dø</t>
+  </si>
+  <si>
+    <t>Settings DROPPES!!! X_x</t>
   </si>
 </sst>
 </file>
@@ -251,7 +266,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,6 +327,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -325,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -372,6 +393,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -693,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89B9FC7-9091-471F-B5D0-05011EE7CF83}">
   <dimension ref="A1:X98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="109" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O67" sqref="O67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1204,82 +1226,97 @@
         <v>43949</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13">
         <v>43950</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13">
         <v>43951</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13">
         <v>43952</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>43953</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>43954</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13">
         <v>43955</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="13">
         <v>43956</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="13">
         <v>43957</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="13">
         <v>43958</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="13">
         <v>43959</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>43960</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>43961</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="13">
         <v>43962</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="13">
         <v>43963</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="13">
         <v>43964</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="13">
         <v>43965</v>
       </c>
